--- a/v6_Fe_Cr_Ni_Co_V_Sputtering/count_fcc_fractions_byPalette.xlsx
+++ b/v6_Fe_Cr_Ni_Co_V_Sputtering/count_fcc_fractions_byPalette.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10311"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ywu/InSync/2021_MPIE/2021-12_H Diffusion/Matlab Toolbox HEA/CCA_CALPHAD_SSS_ML/v6_A-B-C-D-E_Sputtering/v6_Fe_Cr_Ni_Co_V_Sputtering/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ywu/InSync/2021_MPIE/2021-12_H Diffusion/Matlab Toolbox HEA/v6_A-B-C-D-E_Sputtering/v6_Fe_Cr_Ni_Co_V_Sputtering/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30CA3C5B-4872-994B-BF78-0890FAE11D34}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10F4D2E1-4436-214A-9B2B-511F9899BD80}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7800" yWindow="2620" windowWidth="28940" windowHeight="20680" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="8540" yWindow="500" windowWidth="28940" windowHeight="20680" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -510,13 +510,13 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="1" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="1" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -799,14 +799,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E121"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A55" zoomScale="93" workbookViewId="0">
-      <selection activeCell="M70" sqref="M70"/>
+    <sheetView tabSelected="1" topLeftCell="A105" zoomScale="255" workbookViewId="0">
+      <selection activeCell="A113" sqref="A113:D113"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="12.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.1640625" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13.5" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="18.6640625" style="1" bestFit="1" customWidth="1"/>
   </cols>
@@ -1706,7 +1706,7 @@
       <c r="D64" s="4">
         <v>47.826086956521742</v>
       </c>
-      <c r="E64" s="8" t="s">
+      <c r="E64" s="6" t="s">
         <v>124</v>
       </c>
     </row>
@@ -2354,7 +2354,7 @@
         <v>23.188405797101449</v>
       </c>
     </row>
-    <row r="111" spans="1:4" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A111" s="1" t="s">
         <v>110</v>
       </c>
@@ -2368,17 +2368,17 @@
         <v>24.637681159420293</v>
       </c>
     </row>
-    <row r="112" spans="1:4" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A112" s="5" t="s">
+    <row r="112" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A112" s="7" t="s">
         <v>111</v>
       </c>
-      <c r="B112" s="6">
+      <c r="B112" s="8">
         <v>57.971014492753625</v>
       </c>
-      <c r="C112" s="6">
+      <c r="C112" s="8">
         <v>55.072463768115945</v>
       </c>
-      <c r="D112" s="7">
+      <c r="D112" s="8">
         <v>50.724637681159422</v>
       </c>
     </row>
